--- a/data/case1/14/Q1_5.xlsx
+++ b/data/case1/14/Q1_5.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.21863370660732073</v>
+        <v>0.25566983192155135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.037155687451875252</v>
+        <v>-0.05574138369895465</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.003999999934874765</v>
+        <v>-0.0039999999776281214</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999998836139952</v>
+        <v>-0.0079999999593329818</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999340750705</v>
+        <v>-0.0029999999764243057</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999305202465</v>
+        <v>-0.0019999999739894747</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999998386102185</v>
+        <v>-0.0099999999416100493</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998350024377</v>
+        <v>-0.0099999999394806416</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999212889641</v>
+        <v>-0.001999999968281152</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999179791672</v>
+        <v>-0.0019999999658999457</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999063434757</v>
+        <v>-0.002999999961720512</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999002307547</v>
+        <v>-0.0034999999591525111</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999998983913372</v>
+        <v>-0.0034999999566558415</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999998474482581</v>
+        <v>-0.0079999999382094344</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999992674515426</v>
+        <v>-0.00099999996529298585</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.013719337455780245</v>
+        <v>-0.0019999999609252583</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999146262937</v>
+        <v>-0.0019999999602768881</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999998917439328</v>
+        <v>-0.0039999999522626339</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999519433338</v>
+        <v>-0.0039999999825663934</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999480535564</v>
+        <v>-0.0039999999785855778</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999475313075</v>
+        <v>-0.0039999999777657891</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999472666303</v>
+        <v>-0.026146649338259387</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999166692177</v>
+        <v>-0.0049999999723810973</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999733153473</v>
+        <v>-0.019999999911152422</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.048543206917988968</v>
+        <v>-0.019999999910014665</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999242449888</v>
+        <v>-0.0024999999719614863</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999229806669</v>
+        <v>-0.0024999999713268828</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999216722131</v>
+        <v>-0.0019999999704403137</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999998607377378</v>
+        <v>-0.0069999999488334907</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999262316805</v>
+        <v>-0.059999999739936527</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.054153394222192119</v>
+        <v>-0.0069999999501106913</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999998323685446</v>
+        <v>0.025781250700084968</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999998999036279</v>
+        <v>0.013750536784373324</v>
       </c>
     </row>
   </sheetData>
